--- a/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,02; 4,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>1,55; 5,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,66; 10,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>1,21; 5,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>5,28; 12,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,05; 6,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,6; 4,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,83; 7,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,78; 7,49</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,86; 5,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>3,64; 7,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,15; 3,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,35; 4,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,43; 5,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,15; 8,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,76; 3,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,2; 4,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,59; 4,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,29; 7,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,13; 2,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,12; 4,27</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,67%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,61; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>1,69; 7,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,7; 4,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>8,1; 14,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,11; 6,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>2,21; 6,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,83; 4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>13,23; 19,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,54; 4,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,55; 5,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,11; 3,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>11,69; 16,11</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,83; 4,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,58; 6,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>2,7; 7,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>4,09; 9,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,52; 6,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,39; 9,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,97; 11,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>7,36; 12,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,08; 4,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,46; 6,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,38; 8,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,6; 9,97</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,42%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,45; 4,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>4,55; 12,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,44; 4,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>9,92; 17,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>1,78; 7,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>3,97; 10,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>1,36; 6,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>17,57; 24,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,57; 4,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,96; 10,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,15; 4,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>15,05; 20,24</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,03%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,74; 4,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>2,99; 8,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>1,65; 5,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>11,05; 18,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,23; 7,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,83; 6,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,9; 5,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>12,94; 19,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,73; 4,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,06; 6,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,67; 4,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>12,96; 17,46</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,88; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,24; 5,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,45; 5,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,29; 8,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,03; 6,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,79; 7,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,51; 7,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,67; 9,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,91; 5,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,23; 5,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,38; 5,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,02; 8,24</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,86; 4,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,5; 4,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,63; 4,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,35; 4,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,3; 3,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,74; 5,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,15; 4,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,17; 4,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,9; 3,5</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,53; 4,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,12; 4,04</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,53; 4,07</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,14; 3,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,4; 4,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,63; 7,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,02; 4,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,67; 6,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,36; 4,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,2; 8,9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,74; 3,6</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,23; 5,29</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,07; 3,99</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,72; 7,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,47; 10,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 10,15</t>
+          <t>3,71; 13,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 10,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,87</t>
+          <t>2,87; 6,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,34; 8,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,49</t>
+          <t>3,88; 8,84</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,59</t>
+          <t>1,28; 4,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,96</t>
+          <t>2,17; 4,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,27</t>
+          <t>2,01; 4,1</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,43%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 14,47</t>
+          <t>7,92; 14,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,23; 19,47</t>
+          <t>13,11; 19,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,11</t>
+          <t>11,46; 15,84</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,02</t>
+          <t>1,05; 4,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,05</t>
+          <t>3,99; 8,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,53</t>
+          <t>5,34; 10,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 12,06</t>
+          <t>4,69; 10,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,96</t>
+          <t>3,62; 7,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 9,97</t>
+          <t>5,12; 9,01</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>17,53%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,42</t>
+          <t>9,93; 17,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,57; 24,46</t>
+          <t>17,78; 24,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,05; 20,24</t>
+          <t>15,16; 20,35</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>14,88%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 18,06</t>
+          <t>10,82; 17,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,94; 19,52</t>
+          <t>12,94; 19,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,46</t>
+          <t>12,79; 17,27</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,13</t>
+          <t>4,12; 7,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,64</t>
+          <t>2,96; 9,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,24</t>
+          <t>3,73; 7,69</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,87%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,82</t>
+          <t>1,14; 4,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,05</t>
+          <t>2,23; 4,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,07</t>
+          <t>1,68; 3,75</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,63; 7,35</t>
+          <t>4,68; 7,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,2; 8,9</t>
+          <t>6,3; 8,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,93</t>
+          <t>5,98; 7,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,92</t>
+          <t>1,02; 5,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,19</t>
+          <t>3,68; 10,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,73</t>
+          <t>1,34; 5,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,08</t>
+          <t>3,61; 12,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,77</t>
+          <t>1,16; 5,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,72</t>
+          <t>4,01; 10,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,19</t>
+          <t>5,12; 11,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,63</t>
+          <t>3,07; 6,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,49</t>
+          <t>1,6; 4,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,81</t>
+          <t>4,37; 8,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,96</t>
+          <t>3,8; 7,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 8,84</t>
+          <t>3,86; 8,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,29</t>
+          <t>2,1; 5,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,77</t>
+          <t>3,48; 7,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,98</t>
+          <t>1,17; 3,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,41</t>
+          <t>1,24; 4,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,85</t>
+          <t>2,38; 5,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,23</t>
+          <t>4,22; 8,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,19</t>
+          <t>0,76; 3,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,81</t>
+          <t>2,18; 4,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,85</t>
+          <t>2,59; 5,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,31</t>
+          <t>4,27; 7,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,94</t>
+          <t>1,05; 2,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,1</t>
+          <t>2,06; 4,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,35</t>
+          <t>0,6; 3,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,01</t>
+          <t>1,56; 6,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,09</t>
+          <t>0,87; 4,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 14,2</t>
+          <t>7,89; 13,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,39</t>
+          <t>1,93; 6,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,53</t>
+          <t>2,11; 6,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,04</t>
+          <t>0,78; 3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,11; 19,29</t>
+          <t>13,4; 19,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,14</t>
+          <t>1,58; 4,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,74</t>
+          <t>2,39; 5,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,2</t>
+          <t>1,0; 3,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 15,84</t>
+          <t>11,39; 15,78</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,17</t>
+          <t>0,82; 4,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,66</t>
+          <t>1,05; 4,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,24</t>
+          <t>2,67; 7,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,83</t>
+          <t>4,07; 9,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,48</t>
+          <t>2,65; 6,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,94</t>
+          <t>5,47; 10,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,11</t>
+          <t>5,09; 11,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,6</t>
+          <t>4,82; 10,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,59</t>
+          <t>2,03; 4,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,07</t>
+          <t>3,82; 7,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,29</t>
+          <t>4,5; 8,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,01</t>
+          <t>5,22; 9,17</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,55</t>
+          <t>0,79; 4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,06</t>
+          <t>4,97; 12,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,22</t>
+          <t>0,45; 4,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,43</t>
+          <t>9,85; 17,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,77</t>
+          <t>1,87; 7,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 10,83</t>
+          <t>3,96; 11,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,16</t>
+          <t>1,36; 6,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,67</t>
+          <t>17,93; 24,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,85</t>
+          <t>1,62; 5,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,28</t>
+          <t>5,02; 10,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,01</t>
+          <t>1,19; 4,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,16; 20,35</t>
+          <t>14,9; 20,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,42</t>
+          <t>0,71; 4,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,94</t>
+          <t>3,08; 8,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,83</t>
+          <t>1,62; 5,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,79</t>
+          <t>11,11; 17,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,32</t>
+          <t>2,26; 7,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,45</t>
+          <t>2,12; 6,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,03</t>
+          <t>1,04; 5,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,94; 19,56</t>
+          <t>12,97; 18,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,8</t>
+          <t>1,76; 4,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,53</t>
+          <t>2,98; 6,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,4</t>
+          <t>1,64; 4,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,27</t>
+          <t>12,59; 17,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,01</t>
+          <t>1,87; 4,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,45</t>
+          <t>2,12; 5,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,59</t>
+          <t>2,45; 5,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,9</t>
+          <t>4,13; 7,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,25</t>
+          <t>3,28; 6,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,54</t>
+          <t>3,7; 7,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,16</t>
+          <t>3,35; 7,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,17</t>
+          <t>3,35; 9,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,11</t>
+          <t>2,91; 5,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,68</t>
+          <t>3,33; 5,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,7</t>
+          <t>3,29; 5,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,69</t>
+          <t>3,79; 7,67</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,28</t>
+          <t>1,87; 4,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,0</t>
+          <t>1,53; 4,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,34</t>
+          <t>1,65; 4,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,25</t>
+          <t>1,16; 4,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,55</t>
+          <t>1,38; 3,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,71</t>
+          <t>2,83; 5,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,91</t>
+          <t>2,26; 4,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,13</t>
+          <t>2,25; 4,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,5</t>
+          <t>1,89; 3,63</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,44</t>
+          <t>2,51; 4,49</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,04</t>
+          <t>2,17; 3,94</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,75</t>
+          <t>1,75; 3,73</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,24</t>
+          <t>2,16; 3,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,85</t>
+          <t>3,34; 4,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,64</t>
+          <t>2,39; 3,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,0</t>
+          <t>4,74; 6,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,23</t>
+          <t>3,02; 4,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,22</t>
+          <t>4,62; 6,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,83</t>
+          <t>3,38; 4,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,68</t>
+          <t>6,32; 8,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,6</t>
+          <t>2,69; 3,53</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,29</t>
+          <t>4,24; 5,31</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,99</t>
+          <t>3,08; 3,98</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,61</t>
+          <t>6,05; 7,63</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7047</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18325</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19561</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7268</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18458</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23752</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13311</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14315</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36783</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32361</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32872</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2783; 14125</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10668; 30078</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3946; 15143</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11247; 39571</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3038; 14080</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11289; 28962</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14773; 34070</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8898; 19424</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8552; 24350</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24990; 50224</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22150; 44837</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23190; 53717</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17030</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26541</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11148</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13343</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18893</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31596</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17243</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35923</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58137</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19722</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30585</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10366; 26306</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17595; 39627</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5882; 19902</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6406; 22911</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11975; 28474</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22054; 45854</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3969; 16513</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11191; 25210</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25811; 51443</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>43911; 75134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10783; 29528</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21263; 42688</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4896</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11994</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6039</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33349</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12341</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13654</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>55964</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17237</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25649</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12449</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>89313</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1916; 10784</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5046; 22287</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2775; 12870</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24933; 43005</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6475; 20934</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7203; 21452</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2636; 12155</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46775; 66443</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10351; 26808</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15870; 37747</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6567; 20633</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>75750; 104935</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7258</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8340</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16739</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19349</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15638</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30761</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29898</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37835</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22896</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39101</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>46637</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>57184</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2944; 14744</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3925; 17184</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9888; 26734</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12719; 29546</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9853; 24708</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21237; 42058</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19706; 43414</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22947; 50509</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14837; 33513</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29114; 53969</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34057; 61751</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41111; 72276</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17006</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24002</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8289</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15446</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7098</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>43915</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>12053</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32453</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10131</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67917</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1604; 9888</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10570; 27006</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>941; 8611</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17599; 30950</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3890; 15222</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8702; 25136</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2983; 14266</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37418; 51980</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6639; 21115</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21695; 46183</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5126; 19189</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57733; 78773</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4988</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14220</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8310</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>37528</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11809</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10845</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6520</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40863</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16797</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>25065</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14830</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>78390</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1916; 11238</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8443; 24614</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4253; 15435</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>29967; 46452</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6295; 20506</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5909; 18740</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2847; 14771</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>33331; 48694</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9686; 26568</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>16491; 37238</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8805; 24561</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>66292; 91406</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19284</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>23394</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>25394</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>35874</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>29617</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>36313</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>34058</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>55324</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>48901</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>59707</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>59452</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>91198</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11480; 30345</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13989; 34839</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16118; 37291</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>25787; 49526</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20948; 41585</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>25680; 51774</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>23157; 49083</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>28421; 77014</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36446; 63895</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>45116; 78800</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>44365; 77948</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>55882; 112973</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>22328</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>20443</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>20498</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>25120</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>17617</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>33021</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>27427</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>22057</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>39945</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>53465</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>47925</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>47177</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>13868; 32964</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>11869; 31231</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>12857; 32447</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>10794; 39710</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>10807; 28349</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>23254; 47485</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>18655; 40151</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>16061; 29587</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>28826; 55328</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>40068; 71693</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>34885; 63153</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>28737; 61356</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>86595</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>140263</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>99770</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>208125</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>121472</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>190095</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>143737</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>286511</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>208067</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>330359</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>243507</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>494636</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>70617; 108614</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>114170; 166447</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>81052; 122688</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>164059; 241010</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>101921; 142388</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>163853; 220822</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>119777; 171144</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>231207; 317937</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>178837; 234861</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>295469; 369878</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>213981; 276229</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>430868; 543050</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>